--- a/frontend/data3.xlsx
+++ b/frontend/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgr6915\Documents\GitHub\Trial_Assignment\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AFC764-19AD-4CC0-82A3-D30D14DB585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8810B59B-FAA9-4493-A5DC-F9A53F61CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="_Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Маршрут!$A$2:$F$6333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Маршрут!$A$2:$F$6272</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Маршрут!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
     <t>пп</t>
   </si>
@@ -273,150 +273,6 @@
   </si>
   <si>
     <t>Точка 62</t>
-  </si>
-  <si>
-    <t>Точка 63</t>
-  </si>
-  <si>
-    <t>Точка 64</t>
-  </si>
-  <si>
-    <t>Точка 65</t>
-  </si>
-  <si>
-    <t>Точка 66</t>
-  </si>
-  <si>
-    <t>Точка 67</t>
-  </si>
-  <si>
-    <t>Точка 68</t>
-  </si>
-  <si>
-    <t>Точка 69</t>
-  </si>
-  <si>
-    <t>Точка 70</t>
-  </si>
-  <si>
-    <t>Точка 71</t>
-  </si>
-  <si>
-    <t>Точка 72</t>
-  </si>
-  <si>
-    <t>Точка 73</t>
-  </si>
-  <si>
-    <t>Точка 74</t>
-  </si>
-  <si>
-    <t>Точка 75</t>
-  </si>
-  <si>
-    <t>Точка 76</t>
-  </si>
-  <si>
-    <t>Точка 77</t>
-  </si>
-  <si>
-    <t>Точка 78</t>
-  </si>
-  <si>
-    <t>Точка 79</t>
-  </si>
-  <si>
-    <t>Точка 80</t>
-  </si>
-  <si>
-    <t>Точка 81</t>
-  </si>
-  <si>
-    <t>Точка 82</t>
-  </si>
-  <si>
-    <t>Точка 83</t>
-  </si>
-  <si>
-    <t>Точка 84</t>
-  </si>
-  <si>
-    <t>Точка 85</t>
-  </si>
-  <si>
-    <t>Точка 86</t>
-  </si>
-  <si>
-    <t>Точка 87</t>
-  </si>
-  <si>
-    <t>Точка 88</t>
-  </si>
-  <si>
-    <t>Точка 89</t>
-  </si>
-  <si>
-    <t>Точка 90</t>
-  </si>
-  <si>
-    <t>Точка 91</t>
-  </si>
-  <si>
-    <t>Точка 92</t>
-  </si>
-  <si>
-    <t>Точка 93</t>
-  </si>
-  <si>
-    <t>Точка 94</t>
-  </si>
-  <si>
-    <t>Точка 95</t>
-  </si>
-  <si>
-    <t>Точка 96</t>
-  </si>
-  <si>
-    <t>Точка 97</t>
-  </si>
-  <si>
-    <t>Точка 98</t>
-  </si>
-  <si>
-    <t>Точка 99</t>
-  </si>
-  <si>
-    <t>Точка 100</t>
-  </si>
-  <si>
-    <t>Точка 101</t>
-  </si>
-  <si>
-    <t>Точка 102</t>
-  </si>
-  <si>
-    <t>Точка 103</t>
-  </si>
-  <si>
-    <t>Точка 104</t>
-  </si>
-  <si>
-    <t>Точка 105</t>
-  </si>
-  <si>
-    <t>Точка 106</t>
-  </si>
-  <si>
-    <t>Точка 107</t>
-  </si>
-  <si>
-    <t>Точка 108</t>
-  </si>
-  <si>
-    <t>Точка 109</t>
-  </si>
-  <si>
-    <t>Точка 110</t>
   </si>
 </sst>
 </file>
@@ -905,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H947"/>
+  <dimension ref="A1:H886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +815,13 @@
       </c>
       <c r="C2" s="15">
         <f ca="1">RAND()*10000</f>
-        <v>9287.9006667964895</v>
+        <v>7905.0775400887305</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="15">
         <f ca="1">RAND()*10000</f>
-        <v>4393.6233726389728</v>
+        <v>7649.4371249840542</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -978,8 +834,8 @@
         <v>18</v>
       </c>
       <c r="C3" s="15">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RAND()*10000</f>
-        <v>4854.0278019665902</v>
+        <f t="shared" ref="C3:C63" ca="1" si="0">RAND()*10000</f>
+        <v>232.48864907829736</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -988,8 +844,8 @@
         <v>2</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F66" ca="1" si="1">RAND()*10000</f>
-        <v>2895.2141462054801</v>
+        <f t="shared" ref="F3:F63" ca="1" si="1">RAND()*10000</f>
+        <v>3622.2827124073888</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>5</v>
@@ -1007,7 +863,7 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3485.4839340049448</v>
+        <v>176.60284128490079</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -1017,7 +873,7 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>8767.7661962564871</v>
+        <v>758.98879696301492</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>1</v>
@@ -1035,7 +891,7 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8958.0045419181097</v>
+        <v>9229.2046790469412</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
@@ -1045,7 +901,7 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>815.03971888773674</v>
+        <v>8484.2742821073389</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>3</v>
@@ -1063,7 +919,7 @@
       </c>
       <c r="C6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3514.3666188229195</v>
+        <v>5038.5133477166601</v>
       </c>
       <c r="D6" s="11">
         <v>4</v>
@@ -1073,7 +929,7 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5873.0772629888606</v>
+        <v>7489.2373157637903</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>1</v>
@@ -1091,7 +947,7 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7907.4464276773997</v>
+        <v>1250.0215875634246</v>
       </c>
       <c r="D7" s="11">
         <v>5</v>
@@ -1101,7 +957,7 @@
       </c>
       <c r="F7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9172.9068308415171</v>
+        <v>6688.7894465964046</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>1</v>
@@ -1119,7 +975,7 @@
       </c>
       <c r="C8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9225.4921902802507</v>
+        <v>8495.7391021732001</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -1129,7 +985,7 @@
       </c>
       <c r="F8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>132.00746026313936</v>
+        <v>839.88885888115703</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>5</v>
@@ -1147,7 +1003,7 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3136.1770198420581</v>
+        <v>4271.861330152673</v>
       </c>
       <c r="D9" s="11">
         <v>7</v>
@@ -1157,7 +1013,7 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9893.8578546060016</v>
+        <v>2847.76259909177</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>1</v>
@@ -1175,7 +1031,7 @@
       </c>
       <c r="C10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8950.0621255914466</v>
+        <v>5451.9730606676649</v>
       </c>
       <c r="D10" s="11">
         <v>8</v>
@@ -1185,7 +1041,7 @@
       </c>
       <c r="F10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3613.922902466833</v>
+        <v>9525.5311489158612</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>5</v>
@@ -1203,7 +1059,7 @@
       </c>
       <c r="C11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8896.4411205359993</v>
+        <v>7036.231357608317</v>
       </c>
       <c r="D11" s="11">
         <v>9</v>
@@ -1213,7 +1069,7 @@
       </c>
       <c r="F11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1199.8123676945982</v>
+        <v>49.683188271258949</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>1</v>
@@ -1231,7 +1087,7 @@
       </c>
       <c r="C12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2161.9736392796785</v>
+        <v>3025.2843723946753</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
@@ -1241,7 +1097,7 @@
       </c>
       <c r="F12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3910.5531328506859</v>
+        <v>4518.6801122785055</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>5</v>
@@ -1259,7 +1115,7 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8678.52969776393</v>
+        <v>661.14741043738047</v>
       </c>
       <c r="D13" s="11">
         <v>11</v>
@@ -1269,7 +1125,7 @@
       </c>
       <c r="F13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3855.3652580728381</v>
+        <v>6457.5772861402984</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>1</v>
@@ -1287,7 +1143,7 @@
       </c>
       <c r="C14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6334.5822428712736</v>
+        <v>3015.3362706043672</v>
       </c>
       <c r="D14" s="11">
         <v>12</v>
@@ -1297,7 +1153,7 @@
       </c>
       <c r="F14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4112.3573137837366</v>
+        <v>6432.5625727687357</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>5</v>
@@ -1315,7 +1171,7 @@
       </c>
       <c r="C15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>712.58603787181517</v>
+        <v>5152.7552425973163</v>
       </c>
       <c r="D15" s="11">
         <v>13</v>
@@ -1325,7 +1181,7 @@
       </c>
       <c r="F15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3822.8636091321055</v>
+        <v>4087.3633796711451</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>1</v>
@@ -1343,7 +1199,7 @@
       </c>
       <c r="C16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5898.8900942360478</v>
+        <v>7966.7385700501454</v>
       </c>
       <c r="D16" s="11">
         <v>14</v>
@@ -1353,7 +1209,7 @@
       </c>
       <c r="F16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2425.8388329177383</v>
+        <v>2648.3659705432769</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>5</v>
@@ -1371,7 +1227,7 @@
       </c>
       <c r="C17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8612.4156774462772</v>
+        <v>831.68126157200368</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
@@ -1381,7 +1237,7 @@
       </c>
       <c r="F17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1171.1032163811453</v>
+        <v>3024.8692131602675</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>1</v>
@@ -1399,7 +1255,7 @@
       </c>
       <c r="C18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5718.1205937079967</v>
+        <v>4749.3315164097194</v>
       </c>
       <c r="D18" s="11">
         <v>16</v>
@@ -1409,7 +1265,7 @@
       </c>
       <c r="F18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5688.1623740706846</v>
+        <v>9482.2239527370948</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>5</v>
@@ -1427,7 +1283,7 @@
       </c>
       <c r="C19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7270.6525535679502</v>
+        <v>9490.2180525504027</v>
       </c>
       <c r="D19" s="11">
         <v>17</v>
@@ -1437,7 +1293,7 @@
       </c>
       <c r="F19" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6090.1860905166495</v>
+        <v>396.82146354548252</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>1</v>
@@ -1455,7 +1311,7 @@
       </c>
       <c r="C20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6880.3613437411123</v>
+        <v>7349.9920368659377</v>
       </c>
       <c r="D20" s="11">
         <v>18</v>
@@ -1465,7 +1321,7 @@
       </c>
       <c r="F20" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3610.0742671576427</v>
+        <v>2749.272401303333</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>5</v>
@@ -1483,7 +1339,7 @@
       </c>
       <c r="C21" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3400.9358010222145</v>
+        <v>970.60216680746828</v>
       </c>
       <c r="D21" s="11">
         <v>19</v>
@@ -1493,7 +1349,7 @@
       </c>
       <c r="F21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9591.2670280441889</v>
+        <v>9152.3747537132531</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>1</v>
@@ -1511,7 +1367,7 @@
       </c>
       <c r="C22" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3095.3364299134078</v>
+        <v>9107.867987843445</v>
       </c>
       <c r="D22" s="11">
         <v>20</v>
@@ -1521,7 +1377,7 @@
       </c>
       <c r="F22" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>754.19420149850373</v>
+        <v>6945.0097102145019</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>5</v>
@@ -1539,7 +1395,7 @@
       </c>
       <c r="C23" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5938.0082126560028</v>
+        <v>2662.7447711629825</v>
       </c>
       <c r="D23" s="11">
         <v>21</v>
@@ -1549,7 +1405,7 @@
       </c>
       <c r="F23" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4363.6607176873022</v>
+        <v>6896.5520192959029</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>1</v>
@@ -1567,7 +1423,7 @@
       </c>
       <c r="C24" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7216.6825725757753</v>
+        <v>9725.1801252380519</v>
       </c>
       <c r="D24" s="11">
         <v>22</v>
@@ -1577,7 +1433,7 @@
       </c>
       <c r="F24" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1811.00868742189</v>
+        <v>7248.4257655240162</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>5</v>
@@ -1595,7 +1451,7 @@
       </c>
       <c r="C25" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5205.0060223262517</v>
+        <v>5234.806675475068</v>
       </c>
       <c r="D25" s="11">
         <v>23</v>
@@ -1605,7 +1461,7 @@
       </c>
       <c r="F25" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2498.957696551749</v>
+        <v>4619.2911203643025</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>1</v>
@@ -1623,7 +1479,7 @@
       </c>
       <c r="C26" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>4122.3646025493181</v>
+        <v>553.41995115139048</v>
       </c>
       <c r="D26" s="11">
         <v>24</v>
@@ -1633,7 +1489,7 @@
       </c>
       <c r="F26" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>500.04976102399957</v>
+        <v>1166.2743214247039</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>5</v>
@@ -1651,7 +1507,7 @@
       </c>
       <c r="C27" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9521.917375899895</v>
+        <v>5342.9077879903634</v>
       </c>
       <c r="D27" s="11">
         <v>25</v>
@@ -1661,7 +1517,7 @@
       </c>
       <c r="F27" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5717.8092673052706</v>
+        <v>9943.5292609976204</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>1</v>
@@ -1679,7 +1535,7 @@
       </c>
       <c r="C28" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3513.3088271479642</v>
+        <v>2189.2984799628666</v>
       </c>
       <c r="D28" s="11">
         <v>26</v>
@@ -1689,7 +1545,7 @@
       </c>
       <c r="F28" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5754.0889418880579</v>
+        <v>9104.9995654309314</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>5</v>
@@ -1707,7 +1563,7 @@
       </c>
       <c r="C29" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>1403.3504950489084</v>
+        <v>9129.6958700443647</v>
       </c>
       <c r="D29" s="11">
         <v>27</v>
@@ -1717,7 +1573,7 @@
       </c>
       <c r="F29" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9574.0078260672217</v>
+        <v>2671.4675419503751</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>1</v>
@@ -1735,7 +1591,7 @@
       </c>
       <c r="C30" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6368.5732283914776</v>
+        <v>9188.6878596124752</v>
       </c>
       <c r="D30" s="11">
         <v>28</v>
@@ -1745,7 +1601,7 @@
       </c>
       <c r="F30" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>7645.1312424740672</v>
+        <v>1735.5140734945951</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>5</v>
@@ -1763,7 +1619,7 @@
       </c>
       <c r="C31" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>1703.7490091184993</v>
+        <v>390.633272507821</v>
       </c>
       <c r="D31" s="11">
         <v>29</v>
@@ -1773,7 +1629,7 @@
       </c>
       <c r="F31" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5913.0385560157238</v>
+        <v>4939.1261953468656</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>1</v>
@@ -1791,7 +1647,7 @@
       </c>
       <c r="C32" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6481.5756853030789</v>
+        <v>2249.0981867757719</v>
       </c>
       <c r="D32" s="11">
         <v>30</v>
@@ -1801,7 +1657,7 @@
       </c>
       <c r="F32" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4971.17767158486</v>
+        <v>4464.5830380152738</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>5</v>
@@ -1819,7 +1675,7 @@
       </c>
       <c r="C33" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2049.5668926642998</v>
+        <v>8494.6327189742442</v>
       </c>
       <c r="D33" s="11">
         <v>31</v>
@@ -1829,7 +1685,7 @@
       </c>
       <c r="F33" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9356.6675598714592</v>
+        <v>3378.4315685340939</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>1</v>
@@ -1847,7 +1703,7 @@
       </c>
       <c r="C34" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8402.5977728617327</v>
+        <v>5106.9687384013205</v>
       </c>
       <c r="D34" s="11">
         <v>32</v>
@@ -1857,7 +1713,7 @@
       </c>
       <c r="F34" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5569.1582028983776</v>
+        <v>2245.674496238038</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>5</v>
@@ -1875,7 +1731,7 @@
       </c>
       <c r="C35" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8444.1524871567035</v>
+        <v>10.021598608521698</v>
       </c>
       <c r="D35" s="11">
         <v>33</v>
@@ -1885,7 +1741,7 @@
       </c>
       <c r="F35" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>39.450043301750839</v>
+        <v>9105.6118684007724</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>1</v>
@@ -1903,7 +1759,7 @@
       </c>
       <c r="C36" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3629.061827414549</v>
+        <v>584.96433425798466</v>
       </c>
       <c r="D36" s="11">
         <v>34</v>
@@ -1913,7 +1769,7 @@
       </c>
       <c r="F36" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>8485.597435819338</v>
+        <v>5643.6004161082983</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>5</v>
@@ -1931,7 +1787,7 @@
       </c>
       <c r="C37" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>1178.2118776161021</v>
+        <v>928.09467294747037</v>
       </c>
       <c r="D37" s="11">
         <v>35</v>
@@ -1941,7 +1797,7 @@
       </c>
       <c r="F37" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4249.2973359707021</v>
+        <v>4481.3652927676731</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>1</v>
@@ -1959,7 +1815,7 @@
       </c>
       <c r="C38" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7692.4143573439133</v>
+        <v>9303.4955383702254</v>
       </c>
       <c r="D38" s="11">
         <v>36</v>
@@ -1969,7 +1825,7 @@
       </c>
       <c r="F38" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1583.0715831997977</v>
+        <v>6664.4020761969887</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>5</v>
@@ -1987,7 +1843,7 @@
       </c>
       <c r="C39" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5493.9841549595239</v>
+        <v>603.2036972847643</v>
       </c>
       <c r="D39" s="11">
         <v>37</v>
@@ -1997,7 +1853,7 @@
       </c>
       <c r="F39" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1400.946253258114</v>
+        <v>1021.3981729823041</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>1</v>
@@ -2015,7 +1871,7 @@
       </c>
       <c r="C40" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>4910.4489333228275</v>
+        <v>4107.8762252194538</v>
       </c>
       <c r="D40" s="11">
         <v>38</v>
@@ -2025,7 +1881,7 @@
       </c>
       <c r="F40" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>65.020716542272254</v>
+        <v>7843.5491691298157</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>5</v>
@@ -2043,7 +1899,7 @@
       </c>
       <c r="C41" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7840.7440707326159</v>
+        <v>2615.0430990535269</v>
       </c>
       <c r="D41" s="11">
         <v>39</v>
@@ -2053,7 +1909,7 @@
       </c>
       <c r="F41" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1578.2708476870766</v>
+        <v>542.71579919326189</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>1</v>
@@ -2071,7 +1927,7 @@
       </c>
       <c r="C42" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3966.7673672449546</v>
+        <v>9278.6271770658841</v>
       </c>
       <c r="D42" s="11">
         <v>40</v>
@@ -2081,7 +1937,7 @@
       </c>
       <c r="F42" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>5905.6044727705994</v>
+        <v>136.83455954907276</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>5</v>
@@ -2099,7 +1955,7 @@
       </c>
       <c r="C43" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2774.1643971389849</v>
+        <v>8381.0756179176533</v>
       </c>
       <c r="D43" s="11">
         <v>41</v>
@@ -2109,7 +1965,7 @@
       </c>
       <c r="F43" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>7569.8078835146789</v>
+        <v>8647.5078440070811</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>1</v>
@@ -2127,7 +1983,7 @@
       </c>
       <c r="C44" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9412.606210484666</v>
+        <v>4633.1696024571347</v>
       </c>
       <c r="D44" s="11">
         <v>42</v>
@@ -2137,7 +1993,7 @@
       </c>
       <c r="F44" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3834.6680207544805</v>
+        <v>8883.4839424921847</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>5</v>
@@ -2155,7 +2011,7 @@
       </c>
       <c r="C45" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8639.3772371041014</v>
+        <v>3354.4626319041336</v>
       </c>
       <c r="D45" s="11">
         <v>43</v>
@@ -2165,7 +2021,7 @@
       </c>
       <c r="F45" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>7105.4267686685116</v>
+        <v>609.33171353370176</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>1</v>
@@ -2183,7 +2039,7 @@
       </c>
       <c r="C46" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5018.8129995715672</v>
+        <v>6942.9778323566261</v>
       </c>
       <c r="D46" s="11">
         <v>44</v>
@@ -2193,7 +2049,7 @@
       </c>
       <c r="F46" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>839.5830681848671</v>
+        <v>7831.1750467186303</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>5</v>
@@ -2211,7 +2067,7 @@
       </c>
       <c r="C47" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7021.2613486969785</v>
+        <v>1710.8582205843559</v>
       </c>
       <c r="D47" s="11">
         <v>45</v>
@@ -2221,7 +2077,7 @@
       </c>
       <c r="F47" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6918.6501752019722</v>
+        <v>5770.5403398271756</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>1</v>
@@ -2239,7 +2095,7 @@
       </c>
       <c r="C48" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>4382.4449593421914</v>
+        <v>7577.7547381268305</v>
       </c>
       <c r="D48" s="11">
         <v>46</v>
@@ -2249,7 +2105,7 @@
       </c>
       <c r="F48" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>701.93173787625688</v>
+        <v>4340.7531275626698</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>5</v>
@@ -2267,7 +2123,7 @@
       </c>
       <c r="C49" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>596.20016434092429</v>
+        <v>9604.205560087099</v>
       </c>
       <c r="D49" s="11">
         <v>47</v>
@@ -2277,7 +2133,7 @@
       </c>
       <c r="F49" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>32.327858953465906</v>
+        <v>3588.8054084289456</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>1</v>
@@ -2295,7 +2151,7 @@
       </c>
       <c r="C50" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8221.8466831889618</v>
+        <v>7731.6797139789869</v>
       </c>
       <c r="D50" s="11">
         <v>48</v>
@@ -2305,7 +2161,7 @@
       </c>
       <c r="F50" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1589.9778658940711</v>
+        <v>7432.2148867438573</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>5</v>
@@ -2323,7 +2179,7 @@
       </c>
       <c r="C51" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>809.48696988738629</v>
+        <v>1827.6752478694179</v>
       </c>
       <c r="D51" s="11">
         <v>49</v>
@@ -2333,7 +2189,7 @@
       </c>
       <c r="F51" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4396.8221848496714</v>
+        <v>8621.0262062689308</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>1</v>
@@ -2351,7 +2207,7 @@
       </c>
       <c r="C52" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>4757.2175046654929</v>
+        <v>8889.9630294252183</v>
       </c>
       <c r="D52" s="11">
         <v>50</v>
@@ -2361,7 +2217,7 @@
       </c>
       <c r="F52" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2320.1302244001986</v>
+        <v>1726.4867490576473</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>5</v>
@@ -2379,7 +2235,7 @@
       </c>
       <c r="C53" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2063.4081445277052</v>
+        <v>3257.4251011016586</v>
       </c>
       <c r="D53" s="11">
         <v>51</v>
@@ -2389,7 +2245,7 @@
       </c>
       <c r="F53" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>7633.5091198542304</v>
+        <v>4797.2259520156404</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>1</v>
@@ -2407,7 +2263,7 @@
       </c>
       <c r="C54" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9611.5976059803415</v>
+        <v>9447.2403471446942</v>
       </c>
       <c r="D54" s="11">
         <v>52</v>
@@ -2417,7 +2273,7 @@
       </c>
       <c r="F54" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9901.4911561109348</v>
+        <v>81.08077308020323</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>5</v>
@@ -2435,7 +2291,7 @@
       </c>
       <c r="C55" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5391.379925190733</v>
+        <v>1187.172743009065</v>
       </c>
       <c r="D55" s="11">
         <v>53</v>
@@ -2445,7 +2301,7 @@
       </c>
       <c r="F55" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9751.8025715006534</v>
+        <v>8548.3377412460159</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>1</v>
@@ -2463,7 +2319,7 @@
       </c>
       <c r="C56" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>7083.3856715035045</v>
+        <v>2901.4739297306114</v>
       </c>
       <c r="D56" s="11">
         <v>54</v>
@@ -2473,7 +2329,7 @@
       </c>
       <c r="F56" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9902.1542174127171</v>
+        <v>9573.974661020744</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>5</v>
@@ -2491,7 +2347,7 @@
       </c>
       <c r="C57" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>645.44710899769427</v>
+        <v>6756.6762241786164</v>
       </c>
       <c r="D57" s="11">
         <v>55</v>
@@ -2501,7 +2357,7 @@
       </c>
       <c r="F57" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>7410.3144952249959</v>
+        <v>3735.242311828134</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>1</v>
@@ -2519,7 +2375,7 @@
       </c>
       <c r="C58" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>4612.6152274333908</v>
+        <v>1727.4455654056653</v>
       </c>
       <c r="D58" s="11">
         <v>56</v>
@@ -2529,7 +2385,7 @@
       </c>
       <c r="F58" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>8249.3304101548165</v>
+        <v>8816.9255330983342</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>5</v>
@@ -2547,7 +2403,7 @@
       </c>
       <c r="C59" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9883.4216515073349</v>
+        <v>2430.8464671499264</v>
       </c>
       <c r="D59" s="11">
         <v>57</v>
@@ -2557,7 +2413,7 @@
       </c>
       <c r="F59" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>8636.9472908820026</v>
+        <v>2016.7707734095275</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>1</v>
@@ -2575,7 +2431,7 @@
       </c>
       <c r="C60" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8468.9327250170663</v>
+        <v>617.89610829079527</v>
       </c>
       <c r="D60" s="11">
         <v>58</v>
@@ -2585,7 +2441,7 @@
       </c>
       <c r="F60" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>260.2869834700283</v>
+        <v>7819.4287492314943</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>5</v>
@@ -2603,7 +2459,7 @@
       </c>
       <c r="C61" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9784.5919228856874</v>
+        <v>1016.4033494610403</v>
       </c>
       <c r="D61" s="11">
         <v>59</v>
@@ -2613,7 +2469,7 @@
       </c>
       <c r="F61" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9047.4674917699012</v>
+        <v>8720.7647288045428</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>1</v>
@@ -2631,7 +2487,7 @@
       </c>
       <c r="C62" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>9620.257609776776</v>
+        <v>4262.5154987285105</v>
       </c>
       <c r="D62" s="11">
         <v>60</v>
@@ -2641,7 +2497,7 @@
       </c>
       <c r="F62" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1888.3155316418076</v>
+        <v>7112.7338529989829</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>5</v>
@@ -2659,7 +2515,7 @@
       </c>
       <c r="C63" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>3650.4739373359075</v>
+        <v>9058.7741351317472</v>
       </c>
       <c r="D63" s="11">
         <v>61</v>
@@ -2669,7 +2525,7 @@
       </c>
       <c r="F63" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6722.9004247490357</v>
+        <v>9347.3051141414617</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>1</v>
@@ -2679,1350 +2535,198 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>556.80514868724163</v>
-      </c>
-      <c r="D64" s="11">
-        <v>62</v>
-      </c>
-      <c r="E64" s="11">
-        <v>63</v>
-      </c>
-      <c r="F64" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>8480.8370693714205</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>64</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4536.6330346376826</v>
-      </c>
-      <c r="D65" s="11">
-        <v>63</v>
-      </c>
-      <c r="E65" s="11">
-        <v>64</v>
-      </c>
-      <c r="F65" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3882.3183654983363</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8646.1968700556863</v>
-      </c>
-      <c r="D66" s="11">
-        <v>64</v>
-      </c>
-      <c r="E66" s="11">
-        <v>65</v>
-      </c>
-      <c r="F66" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1804.2407831527939</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>66</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="15">
-        <f t="shared" ref="C67:C111" ca="1" si="2">RAND()*10000</f>
-        <v>4446.8893893143777</v>
-      </c>
-      <c r="D67" s="11">
-        <v>65</v>
-      </c>
-      <c r="E67" s="11">
-        <v>66</v>
-      </c>
-      <c r="F67" s="15">
-        <f t="shared" ref="F67:F111" ca="1" si="3">RAND()*10000</f>
-        <v>1294.924843806996</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4912.3597308226126</v>
-      </c>
-      <c r="D68" s="11">
-        <v>66</v>
-      </c>
-      <c r="E68" s="11">
-        <v>67</v>
-      </c>
-      <c r="F68" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8818.0959797434571</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>68</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>2322.6486595281117</v>
-      </c>
-      <c r="D69" s="11">
-        <v>67</v>
-      </c>
-      <c r="E69" s="11">
-        <v>68</v>
-      </c>
-      <c r="F69" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7503.1797628888899</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>658.89359039373767</v>
-      </c>
-      <c r="D70" s="11">
-        <v>68</v>
-      </c>
-      <c r="E70" s="11">
-        <v>69</v>
-      </c>
-      <c r="F70" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4470.8049131275593</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1434.7347878437033</v>
-      </c>
-      <c r="D71" s="11">
-        <v>69</v>
-      </c>
-      <c r="E71" s="11">
-        <v>70</v>
-      </c>
-      <c r="F71" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5942.3062243199802</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9557.7080492502137</v>
-      </c>
-      <c r="D72" s="11">
-        <v>70</v>
-      </c>
-      <c r="E72" s="11">
-        <v>71</v>
-      </c>
-      <c r="F72" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>748.89435400696368</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>852.56881827814436</v>
-      </c>
-      <c r="D73" s="11">
-        <v>71</v>
-      </c>
-      <c r="E73" s="11">
-        <v>72</v>
-      </c>
-      <c r="F73" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4120.6481028131702</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>73</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>2177.8233920698221</v>
-      </c>
-      <c r="D74" s="11">
-        <v>72</v>
-      </c>
-      <c r="E74" s="11">
-        <v>73</v>
-      </c>
-      <c r="F74" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>541.61870683839265</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>74</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1847.8287055894616</v>
-      </c>
-      <c r="D75" s="11">
-        <v>73</v>
-      </c>
-      <c r="E75" s="11">
-        <v>74</v>
-      </c>
-      <c r="F75" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>3989.3760940530487</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>75</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>558.9484676325618</v>
-      </c>
-      <c r="D76" s="11">
-        <v>74</v>
-      </c>
-      <c r="E76" s="11">
-        <v>75</v>
-      </c>
-      <c r="F76" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6266.8305991123234</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1641.5395319039083</v>
-      </c>
-      <c r="D77" s="11">
-        <v>75</v>
-      </c>
-      <c r="E77" s="11">
-        <v>76</v>
-      </c>
-      <c r="F77" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6849.4978705395606</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>77</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5950.0702044147965</v>
-      </c>
-      <c r="D78" s="11">
-        <v>76</v>
-      </c>
-      <c r="E78" s="11">
-        <v>77</v>
-      </c>
-      <c r="F78" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9212.3462036742803</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1519.4372104045362</v>
-      </c>
-      <c r="D79" s="11">
-        <v>77</v>
-      </c>
-      <c r="E79" s="11">
-        <v>78</v>
-      </c>
-      <c r="F79" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6644.5756869937532</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>79</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>8817.0463802352624</v>
-      </c>
-      <c r="D80" s="11">
-        <v>78</v>
-      </c>
-      <c r="E80" s="11">
-        <v>79</v>
-      </c>
-      <c r="F80" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>3795.1254619024212</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>80</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>8229.6720008595439</v>
-      </c>
-      <c r="D81" s="11">
-        <v>79</v>
-      </c>
-      <c r="E81" s="11">
-        <v>80</v>
-      </c>
-      <c r="F81" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>3754.2418820420385</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>81</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6567.9605055292259</v>
-      </c>
-      <c r="D82" s="11">
-        <v>80</v>
-      </c>
-      <c r="E82" s="11">
-        <v>81</v>
-      </c>
-      <c r="F82" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4704.4160372437582</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>82</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7175.7373007343313</v>
-      </c>
-      <c r="D83" s="11">
-        <v>81</v>
-      </c>
-      <c r="E83" s="11">
-        <v>82</v>
-      </c>
-      <c r="F83" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4862.8270184753464</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>83</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7812.0099503757447</v>
-      </c>
-      <c r="D84" s="11">
-        <v>82</v>
-      </c>
-      <c r="E84" s="11">
-        <v>83</v>
-      </c>
-      <c r="F84" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1547.6795689912171</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>84</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9714.9596917712042</v>
-      </c>
-      <c r="D85" s="11">
-        <v>83</v>
-      </c>
-      <c r="E85" s="11">
-        <v>84</v>
-      </c>
-      <c r="F85" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8824.6291117235851</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>85</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6460.0454820325122</v>
-      </c>
-      <c r="D86" s="11">
-        <v>84</v>
-      </c>
-      <c r="E86" s="11">
-        <v>85</v>
-      </c>
-      <c r="F86" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6536.4471105792809</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9127.9899314755858</v>
-      </c>
-      <c r="D87" s="11">
-        <v>85</v>
-      </c>
-      <c r="E87" s="11">
-        <v>86</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6867.0182618362087</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>87</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6797.6335514185239</v>
-      </c>
-      <c r="D88" s="11">
-        <v>86</v>
-      </c>
-      <c r="E88" s="11">
-        <v>87</v>
-      </c>
-      <c r="F88" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9215.1813966883346</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>88</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>3284.8482603353668</v>
-      </c>
-      <c r="D89" s="11">
-        <v>87</v>
-      </c>
-      <c r="E89" s="11">
-        <v>88</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7638.5807719490949</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
-        <v>89</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7603.1805295150743</v>
-      </c>
-      <c r="D90" s="11">
-        <v>88</v>
-      </c>
-      <c r="E90" s="11">
-        <v>89</v>
-      </c>
-      <c r="F90" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8099.0207054885486</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
-        <v>90</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4429.3917106198278</v>
-      </c>
-      <c r="D91" s="11">
-        <v>89</v>
-      </c>
-      <c r="E91" s="11">
-        <v>90</v>
-      </c>
-      <c r="F91" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9165.5842299562046</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="11">
-        <v>91</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1575.9535197990238</v>
-      </c>
-      <c r="D92" s="11">
-        <v>90</v>
-      </c>
-      <c r="E92" s="11">
-        <v>91</v>
-      </c>
-      <c r="F92" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9228.0416035200924</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
-        <v>92</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>484.32571063446784</v>
-      </c>
-      <c r="D93" s="11">
-        <v>91</v>
-      </c>
-      <c r="E93" s="11">
-        <v>92</v>
-      </c>
-      <c r="F93" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4593.9752465608562</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
-        <v>93</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4230.059911504617</v>
-      </c>
-      <c r="D94" s="11">
-        <v>92</v>
-      </c>
-      <c r="E94" s="11">
-        <v>93</v>
-      </c>
-      <c r="F94" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9789.2700075525136</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
-        <v>94</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5000.9194616179939</v>
-      </c>
-      <c r="D95" s="11">
-        <v>93</v>
-      </c>
-      <c r="E95" s="11">
-        <v>94</v>
-      </c>
-      <c r="F95" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>675.53279763604473</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
-        <v>95</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4302.5385771626343</v>
-      </c>
-      <c r="D96" s="11">
-        <v>94</v>
-      </c>
-      <c r="E96" s="11">
-        <v>95</v>
-      </c>
-      <c r="F96" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7300.8181145744647</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="11">
-        <v>96</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408.5667678065572</v>
-      </c>
-      <c r="D97" s="11">
-        <v>95</v>
-      </c>
-      <c r="E97" s="11">
-        <v>96</v>
-      </c>
-      <c r="F97" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5194.940713040839</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>97</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4330.2554944857666</v>
-      </c>
-      <c r="D98" s="11">
-        <v>96</v>
-      </c>
-      <c r="E98" s="11">
-        <v>97</v>
-      </c>
-      <c r="F98" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9543.2556224107702</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
-        <v>98</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5605.4905791218653</v>
-      </c>
-      <c r="D99" s="11">
-        <v>97</v>
-      </c>
-      <c r="E99" s="11">
-        <v>98</v>
-      </c>
-      <c r="F99" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6815.6734796355304</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>99</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>3169.9251109234392</v>
-      </c>
-      <c r="D100" s="11">
-        <v>98</v>
-      </c>
-      <c r="E100" s="11">
-        <v>99</v>
-      </c>
-      <c r="F100" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>2400.7143439223109</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>100</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9251.1804059773112</v>
-      </c>
-      <c r="D101" s="11">
-        <v>99</v>
-      </c>
-      <c r="E101" s="11">
-        <v>100</v>
-      </c>
-      <c r="F101" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9473.9545334382019</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
-        <v>101</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7895.4646458401612</v>
-      </c>
-      <c r="D102" s="11">
-        <v>100</v>
-      </c>
-      <c r="E102" s="11">
-        <v>101</v>
-      </c>
-      <c r="F102" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1736.6291626876184</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
-        <v>102</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9207.155606521841</v>
-      </c>
-      <c r="D103" s="11">
-        <v>101</v>
-      </c>
-      <c r="E103" s="11">
-        <v>102</v>
-      </c>
-      <c r="F103" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6355.8781695388307</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11">
-        <v>103</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7666.7332771718857</v>
-      </c>
-      <c r="D104" s="11">
-        <v>102</v>
-      </c>
-      <c r="E104" s="11">
-        <v>103</v>
-      </c>
-      <c r="F104" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8674.9201438560667</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
-        <v>104</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6610.8800998663346</v>
-      </c>
-      <c r="D105" s="11">
-        <v>103</v>
-      </c>
-      <c r="E105" s="11">
-        <v>104</v>
-      </c>
-      <c r="F105" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1811.1009833038127</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
-        <v>105</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4678.4737075354169</v>
-      </c>
-      <c r="D106" s="11">
-        <v>104</v>
-      </c>
-      <c r="E106" s="11">
-        <v>105</v>
-      </c>
-      <c r="F106" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6822.189760666829</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11">
-        <v>106</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1648.8586884830124</v>
-      </c>
-      <c r="D107" s="11">
-        <v>105</v>
-      </c>
-      <c r="E107" s="11">
-        <v>106</v>
-      </c>
-      <c r="F107" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>394.94173716922211</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
-        <v>107</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>8659.1105462599244</v>
-      </c>
-      <c r="D108" s="11">
-        <v>106</v>
-      </c>
-      <c r="E108" s="11">
-        <v>107</v>
-      </c>
-      <c r="F108" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8172.4979454004888</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
-        <v>108</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7522.8882491556005</v>
-      </c>
-      <c r="D109" s="11">
-        <v>107</v>
-      </c>
-      <c r="E109" s="11">
-        <v>108</v>
-      </c>
-      <c r="F109" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9134.1582686610964</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
-        <v>109</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C110" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5051.3667686893777</v>
-      </c>
-      <c r="D110" s="11">
-        <v>108</v>
-      </c>
-      <c r="E110" s="11">
-        <v>109</v>
-      </c>
-      <c r="F110" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>3309.0425037608529</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
-        <v>110</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>3422.5311031901815</v>
-      </c>
-      <c r="D111" s="11">
-        <v>109</v>
-      </c>
-      <c r="E111" s="11">
-        <v>110</v>
-      </c>
-      <c r="F111" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9067.8579016766034</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
@@ -7108,267 +5812,23 @@
     </row>
     <row r="883" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G883" s="1"/>
-      <c r="H883" s="1"/>
     </row>
     <row r="884" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G884" s="1"/>
-      <c r="H884" s="1"/>
     </row>
     <row r="885" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G885" s="1"/>
-      <c r="H885" s="1"/>
     </row>
     <row r="886" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G886" s="1"/>
-      <c r="H886" s="1"/>
-    </row>
-    <row r="887" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G887" s="1"/>
-      <c r="H887" s="1"/>
-    </row>
-    <row r="888" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G888" s="1"/>
-      <c r="H888" s="1"/>
-    </row>
-    <row r="889" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G889" s="1"/>
-      <c r="H889" s="1"/>
-    </row>
-    <row r="890" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G890" s="1"/>
-      <c r="H890" s="1"/>
-    </row>
-    <row r="891" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G891" s="1"/>
-      <c r="H891" s="1"/>
-    </row>
-    <row r="892" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G892" s="1"/>
-      <c r="H892" s="1"/>
-    </row>
-    <row r="893" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G893" s="1"/>
-      <c r="H893" s="1"/>
-    </row>
-    <row r="894" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G894" s="1"/>
-      <c r="H894" s="1"/>
-    </row>
-    <row r="895" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G895" s="1"/>
-      <c r="H895" s="1"/>
-    </row>
-    <row r="896" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G896" s="1"/>
-      <c r="H896" s="1"/>
-    </row>
-    <row r="897" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G897" s="1"/>
-      <c r="H897" s="1"/>
-    </row>
-    <row r="898" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G898" s="1"/>
-      <c r="H898" s="1"/>
-    </row>
-    <row r="899" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G899" s="1"/>
-      <c r="H899" s="1"/>
-    </row>
-    <row r="900" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G900" s="1"/>
-      <c r="H900" s="1"/>
-    </row>
-    <row r="901" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G901" s="1"/>
-      <c r="H901" s="1"/>
-    </row>
-    <row r="902" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G902" s="1"/>
-      <c r="H902" s="1"/>
-    </row>
-    <row r="903" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G903" s="1"/>
-      <c r="H903" s="1"/>
-    </row>
-    <row r="904" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G904" s="1"/>
-      <c r="H904" s="1"/>
-    </row>
-    <row r="905" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G905" s="1"/>
-      <c r="H905" s="1"/>
-    </row>
-    <row r="906" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G906" s="1"/>
-      <c r="H906" s="1"/>
-    </row>
-    <row r="907" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G907" s="1"/>
-      <c r="H907" s="1"/>
-    </row>
-    <row r="908" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G908" s="1"/>
-      <c r="H908" s="1"/>
-    </row>
-    <row r="909" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G909" s="1"/>
-      <c r="H909" s="1"/>
-    </row>
-    <row r="910" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G910" s="1"/>
-      <c r="H910" s="1"/>
-    </row>
-    <row r="911" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G911" s="1"/>
-      <c r="H911" s="1"/>
-    </row>
-    <row r="912" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G912" s="1"/>
-      <c r="H912" s="1"/>
-    </row>
-    <row r="913" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G913" s="1"/>
-      <c r="H913" s="1"/>
-    </row>
-    <row r="914" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G914" s="1"/>
-      <c r="H914" s="1"/>
-    </row>
-    <row r="915" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G915" s="1"/>
-      <c r="H915" s="1"/>
-    </row>
-    <row r="916" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G916" s="1"/>
-      <c r="H916" s="1"/>
-    </row>
-    <row r="917" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G917" s="1"/>
-      <c r="H917" s="1"/>
-    </row>
-    <row r="918" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G918" s="1"/>
-      <c r="H918" s="1"/>
-    </row>
-    <row r="919" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G919" s="1"/>
-      <c r="H919" s="1"/>
-    </row>
-    <row r="920" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G920" s="1"/>
-      <c r="H920" s="1"/>
-    </row>
-    <row r="921" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G921" s="1"/>
-      <c r="H921" s="1"/>
-    </row>
-    <row r="922" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G922" s="1"/>
-      <c r="H922" s="1"/>
-    </row>
-    <row r="923" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G923" s="1"/>
-      <c r="H923" s="1"/>
-    </row>
-    <row r="924" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G924" s="1"/>
-      <c r="H924" s="1"/>
-    </row>
-    <row r="925" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G925" s="1"/>
-      <c r="H925" s="1"/>
-    </row>
-    <row r="926" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G926" s="1"/>
-      <c r="H926" s="1"/>
-    </row>
-    <row r="927" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G927" s="1"/>
-      <c r="H927" s="1"/>
-    </row>
-    <row r="928" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G928" s="1"/>
-      <c r="H928" s="1"/>
-    </row>
-    <row r="929" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G929" s="1"/>
-      <c r="H929" s="1"/>
-    </row>
-    <row r="930" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G930" s="1"/>
-      <c r="H930" s="1"/>
-    </row>
-    <row r="931" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G931" s="1"/>
-      <c r="H931" s="1"/>
-    </row>
-    <row r="932" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G932" s="1"/>
-      <c r="H932" s="1"/>
-    </row>
-    <row r="933" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G933" s="1"/>
-      <c r="H933" s="1"/>
-    </row>
-    <row r="934" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G934" s="1"/>
-      <c r="H934" s="1"/>
-    </row>
-    <row r="935" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G935" s="1"/>
-      <c r="H935" s="1"/>
-    </row>
-    <row r="936" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G936" s="1"/>
-      <c r="H936" s="1"/>
-    </row>
-    <row r="937" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G937" s="1"/>
-      <c r="H937" s="1"/>
-    </row>
-    <row r="938" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G938" s="1"/>
-      <c r="H938" s="1"/>
-    </row>
-    <row r="939" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G939" s="1"/>
-      <c r="H939" s="1"/>
-    </row>
-    <row r="940" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G940" s="1"/>
-      <c r="H940" s="1"/>
-    </row>
-    <row r="941" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G941" s="1"/>
-      <c r="H941" s="1"/>
-    </row>
-    <row r="942" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G942" s="1"/>
-      <c r="H942" s="1"/>
-    </row>
-    <row r="943" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G943" s="1"/>
-      <c r="H943" s="1"/>
-    </row>
-    <row r="944" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G944" s="1"/>
-    </row>
-    <row r="945" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G945" s="1"/>
-    </row>
-    <row r="946" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G946" s="1"/>
-    </row>
-    <row r="947" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G947" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H112:H943" xr:uid="{008E14A2-6746-45B1-9935-76B86E4AD149}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64:H882" xr:uid="{008E14A2-6746-45B1-9935-76B86E4AD149}">
       <formula1>INDIRECT("ОбластиВидимости[Область видимости]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G112:G947" xr:uid="{36C186D3-8453-47AC-BCA3-F27BF02A6D66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64:G886" xr:uid="{36C186D3-8453-47AC-BCA3-F27BF02A6D66}">
       <formula1>INDIRECT("Операторы[Операторы]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -7381,13 +5841,13 @@
           <x14:formula1>
             <xm:f>_Справочники!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G111</xm:sqref>
+          <xm:sqref>G3:G63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65C92055-7665-4981-A14E-7030289263A5}">
           <x14:formula1>
             <xm:f>_Справочники!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H111</xm:sqref>
+          <xm:sqref>H3:H63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
